--- a/spliced/falling/2023-03-28_19-35-57/data_selected.xlsx
+++ b/spliced/falling/2023-03-28_19-35-57/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.0723671913146972</v>
+        <v>-0.4100122451782226</v>
       </c>
       <c r="D2" t="n">
-        <v>0.398813247680664</v>
+        <v>0.3157248497009277</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0261114835739135</v>
+        <v>-0.4111190438270569</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0345138870179653</v>
+        <v>-0.0310014113783836</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1418734490871429</v>
+        <v>0.0068722339347004</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0546724386513233</v>
+        <v>0.001527163083665</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4648051261901855</v>
+        <v>-0.3957743644714355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3905239105224609</v>
+        <v>0.3475203514099121</v>
       </c>
       <c r="E3" t="n">
-        <v>0.401032954454422</v>
+        <v>-0.2738307416439056</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.032223142683506</v>
+        <v>-0.0077885319478809</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3484986126422882</v>
+        <v>-0.0080939643085002</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1937969923019409</v>
+        <v>-0.0400116741657257</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.03253173828125</v>
+        <v>-0.5445261001586914</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1416168212890625</v>
+        <v>0.2971320152282715</v>
       </c>
       <c r="E4" t="n">
-        <v>1.499733686447144</v>
+        <v>-0.1380582749843597</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1188132911920547</v>
+        <v>-0.0332921557128429</v>
       </c>
       <c r="G4" t="n">
-        <v>0.318566232919693</v>
+        <v>-0.0244346093386411</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0813977941870689</v>
+        <v>-0.0705549344420433</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.7911763191223145</v>
+        <v>-0.0015645027160644</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2393178939819336</v>
+        <v>0.2662014961242676</v>
       </c>
       <c r="E5" t="n">
-        <v>1.927771806716919</v>
+        <v>-0.2422323226928711</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2278527319431305</v>
+        <v>0.0039706239476799</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3268128931522369</v>
+        <v>0.0195476878434419</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1646281778812408</v>
+        <v>-0.038026362657547</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.6626334190368652</v>
+        <v>-0.0723671913146972</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8235597610473633</v>
+        <v>0.398813247680664</v>
       </c>
       <c r="E6" t="n">
-        <v>2.30325984954834</v>
+        <v>0.0261114835739135</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0331394411623477</v>
+        <v>-0.0345138870179653</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1012509167194366</v>
+        <v>0.1418734490871429</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.09605856239795681</v>
+        <v>0.0546724386513233</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.474053382873535</v>
+        <v>0.4648051261901855</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7457327842712402</v>
+        <v>0.3905239105224609</v>
       </c>
       <c r="E7" t="n">
-        <v>2.726755142211914</v>
+        <v>0.401032954454422</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7597636580467224</v>
+        <v>-0.032223142683506</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0694859251379966</v>
+        <v>0.3484986126422882</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0531452745199203</v>
+        <v>0.1937969923019409</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.78084135055542</v>
+        <v>0.03253173828125</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.402418613433838</v>
+        <v>-0.1416168212890625</v>
       </c>
       <c r="E8" t="n">
-        <v>2.212388038635254</v>
+        <v>1.499733686447144</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3869831264019012</v>
+        <v>-0.1188132911920547</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.697414636611938</v>
+        <v>0.318566232919693</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.992184281349182</v>
+        <v>0.0813977941870689</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-3.69126033782959</v>
+        <v>-0.7911763191223145</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.209368467330933</v>
+        <v>-0.2393178939819336</v>
       </c>
       <c r="E9" t="n">
-        <v>1.650809645652771</v>
+        <v>1.927771806716919</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.806633949279785</v>
+        <v>-0.2278527319431305</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.700621604919434</v>
+        <v>0.3268128931522369</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.564690589904785</v>
+        <v>-0.1646281778812408</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-5.679105281829834</v>
+        <v>-0.6626334190368652</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.972231864929199</v>
+        <v>-0.8235597610473633</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8967219591140747</v>
+        <v>2.30325984954834</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2874121069908142</v>
+        <v>0.0331394411623477</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7710646390914917</v>
+        <v>-0.1012509167194366</v>
       </c>
       <c r="H10" t="n">
-        <v>1.056185960769653</v>
+        <v>-0.09605856239795681</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-8.219106674194336</v>
+        <v>-1.474053382873535</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5375771522521973</v>
+        <v>-0.7457327842712402</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9215919971466064</v>
+        <v>2.726755142211914</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1162171140313148</v>
+        <v>0.7597636580467224</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4549418985843658</v>
+        <v>-0.0694859251379966</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4101960062980652</v>
+        <v>-0.0531452745199203</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26.41851043701172</v>
+        <v>-2.78084135055542</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.289778709411621</v>
+        <v>-1.402418613433838</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.24878120422363</v>
+        <v>2.212388038635254</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4208861589431762</v>
+        <v>-0.3869831264019012</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4367686510086059</v>
+        <v>-3.697414636611938</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2874121069908142</v>
+        <v>-1.992184281349182</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-7.613844871520996</v>
+        <v>-3.69126033782959</v>
       </c>
       <c r="D13" t="n">
-        <v>6.058750152587891</v>
+        <v>-3.209368467330933</v>
       </c>
       <c r="E13" t="n">
-        <v>5.673562526702881</v>
+        <v>1.650809645652771</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6397286057472229</v>
+        <v>-1.806633949279785</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3787364661693573</v>
+        <v>-3.700621604919434</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7061602473258972</v>
+        <v>-4.564690589904785</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.281689643859863</v>
+        <v>-5.679105281829834</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.930487871170044</v>
+        <v>-4.972231864929199</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.143074989318848</v>
+        <v>0.8967219591140747</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0201585534960031</v>
+        <v>-0.2874121069908142</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1424843221902847</v>
+        <v>-0.7710646390914917</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6214026808738708</v>
+        <v>1.056185960769653</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.9546890258789062</v>
+        <v>-8.219106674194336</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6401574611663818</v>
+        <v>0.5375771522521973</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1838119029998779</v>
+        <v>-0.9215919971466064</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06688974797725671</v>
+        <v>-0.1162171140313148</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08704829961061469</v>
+        <v>0.4549418985843658</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6957755088806152</v>
+        <v>-0.4101960062980652</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0202217102050781</v>
+        <v>26.41851043701172</v>
       </c>
       <c r="D16" t="n">
-        <v>1.288838624954224</v>
+        <v>-1.289778709411621</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7679400444030762</v>
+        <v>-10.24878120422363</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.00167987938039</v>
+        <v>-0.4208861589431762</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9256135821342468</v>
+        <v>-0.4367686510086059</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4283692538738251</v>
+        <v>0.2874121069908142</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.244831085205078</v>
+        <v>-7.613844871520996</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.71762228012085</v>
+        <v>6.058750152587891</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7488219738006592</v>
+        <v>5.673562526702881</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6487388610839844</v>
+        <v>-0.6397286057472229</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8439103364944458</v>
+        <v>-0.3787364661693573</v>
       </c>
       <c r="H17" t="n">
-        <v>0.693637490272522</v>
+        <v>0.7061602473258972</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.553339958190918</v>
+        <v>-1.281689643859863</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4797818660736084</v>
+        <v>-2.930487871170044</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4767866134643554</v>
+        <v>-2.143074989318848</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0458148941397666</v>
+        <v>-0.0201585534960031</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3787364661693573</v>
+        <v>-0.1424843221902847</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1919644027948379</v>
+        <v>0.6214026808738708</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.489582061767578</v>
+        <v>-0.9546890258789062</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4650382995605469</v>
+        <v>0.6401574611663818</v>
       </c>
       <c r="E19" t="n">
-        <v>2.65714955329895</v>
+        <v>-0.1838119029998779</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8376489877700806</v>
+        <v>-0.06688974797725671</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98836636543274</v>
+        <v>0.08704829961061469</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.266184538602829</v>
+        <v>0.6957755088806152</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2150793075561523</v>
+        <v>0.0202217102050781</v>
       </c>
       <c r="D20" t="n">
-        <v>1.105870723724365</v>
+        <v>1.288838624954224</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.261855840682983</v>
+        <v>0.7679400444030762</v>
       </c>
       <c r="F20" t="n">
-        <v>1.477683067321777</v>
+        <v>-0.00167987938039</v>
       </c>
       <c r="G20" t="n">
-        <v>1.546558141708374</v>
+        <v>0.9256135821342468</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.000902652740478</v>
+        <v>0.4283692538738251</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>1.244831085205078</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.71762228012085</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.7488219738006592</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.6487388610839844</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8439103364944458</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.693637490272522</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2.553339958190918</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4797818660736084</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4767866134643554</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0458148941397666</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3787364661693573</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1919644027948379</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2.489582061767578</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4650382995605469</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.65714955329895</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8376489877700806</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.98836636543274</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.266184538602829</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2150793075561523</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.105870723724365</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.261855840682983</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.477683067321777</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.546558141708374</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1.000902652740478</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>-0.7989382743835449</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>-0.0554313659667968</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E25" t="n">
         <v>-2.816707372665405</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F25" t="n">
         <v>-0.024892758578062</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G25" t="n">
         <v>-0.0316122770309448</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>-0.06902777403593061</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.732457160949707</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4553084373474121</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.453210830688477</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1531744599342346</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9390525817871094</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.3572034537792206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.187225341796875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2255609035491943</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.6162976026535034</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1224784851074218</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.0070249503478407</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.1852448880672454</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.9302024841308594</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2106423377990722</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.1286094188690185</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0273362193256616</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.1533271819353103</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.1511891484260559</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.170828819274902</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.4288506507873535</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.3933718204498291</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0138971842825412</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.0740674138069152</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.052381694316864</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.678126335144043</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.426605224609375</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.0270633697509765</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.102472648024559</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0630718395113945</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.0003054326225537</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.493565559387207</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1020381450653076</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0103309154510498</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0174096599221229</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0529925599694252</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0123700210824608</v>
       </c>
     </row>
   </sheetData>
